--- a/Parts/categories - Rebrickable, BrickLink and Custom, Excel.xlsx
+++ b/Parts/categories - Rebrickable, BrickLink and Custom, Excel.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brydo\Documents\GitHub\BrickLink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brydo\Documents\GitHub\BrickLink\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B3497-C82F-4CC0-9375-1B1F6321260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA3AF84-6149-4926-94C8-1F644911E723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34AA68D1-0225-4AE3-B015-1BD334BED3BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{34AA68D1-0225-4AE3-B015-1BD334BED3BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Rebrickable" sheetId="2" r:id="rId1"/>
-    <sheet name="BrickLink, Custom" sheetId="3" r:id="rId2"/>
+    <sheet name="BrickLink" sheetId="3" r:id="rId2"/>
     <sheet name="BrickLink, Missing" sheetId="4" r:id="rId3"/>
+    <sheet name="Custom" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Rebrickable!$A$1:$B$68</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="189">
   <si>
     <t>Baseplates</t>
   </si>
@@ -456,9 +457,6 @@
     <t>Jewelry</t>
   </si>
   <si>
-    <t>Ring</t>
-  </si>
-  <si>
     <t>Jumbo</t>
   </si>
   <si>
@@ -514,13 +512,118 @@
   </si>
   <si>
     <t>#pullback and windup</t>
+  </si>
+  <si>
+    <t># 1?, ring?!</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Beams</t>
+  </si>
+  <si>
+    <t>Technic</t>
+  </si>
+  <si>
+    <t>Steering</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Gears</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>System?!</t>
+  </si>
+  <si>
+    <t>Land, Sea, Birds?!</t>
+  </si>
+  <si>
+    <t>Figures, Large</t>
+  </si>
+  <si>
+    <t>Figures, Mini</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Tyres</t>
+  </si>
+  <si>
+    <t>Door, Windows and Frames</t>
+  </si>
+  <si>
+    <t>Angled?!, Brackets?!</t>
+  </si>
+  <si>
+    <t>Wedged?!, Studded?!</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>Tiles (plates without studs?)</t>
+  </si>
+  <si>
+    <t>Panels (one sided bricks?)</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Aircraft?! Trains?!</t>
+  </si>
+  <si>
+    <t>Control+, Power Functions</t>
+  </si>
+  <si>
+    <t>#rubber?!</t>
+  </si>
+  <si>
+    <t>Animals?!</t>
+  </si>
+  <si>
+    <t>Vehicles?!</t>
+  </si>
+  <si>
+    <t>Figures?!</t>
+  </si>
+  <si>
+    <t>Group, Tag?!</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Axle (Holder), Pin (Holder), Bar, Clip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,12 +637,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -582,21 +679,291 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -604,7 +971,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
         <family val="2"/>
@@ -620,7 +987,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
         <family val="2"/>
@@ -635,7 +1002,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
         <family val="2"/>
@@ -649,7 +1016,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
         <family val="2"/>
@@ -688,14 +1055,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0384CD7F-947A-4DC0-9513-22F8C69ECEBF}" name="categories__Dec__30__2024__07_08_a_m____original" displayName="categories__Dec__30__2024__07_08_a_m____original" ref="A1:B68" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0384CD7F-947A-4DC0-9513-22F8C69ECEBF}" name="categories__Dec__30__2024__07_08_a_m____original" displayName="categories__Dec__30__2024__07_08_a_m____original" ref="A1:B68" tableType="queryTable" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:B68" xr:uid="{0384CD7F-947A-4DC0-9513-22F8C69ECEBF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B68">
-    <sortCondition ref="B1:B68"/>
+    <sortCondition ref="A1:A68"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2766E5D2-CC56-4B45-8CF3-5308EB215660}" uniqueName="1" name="cat_id" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{841C5310-C4C1-4C72-A650-7A6143CEA8F7}" uniqueName="2" name="cat_name" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2766E5D2-CC56-4B45-8CF3-5308EB215660}" uniqueName="1" name="cat_id" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{841C5310-C4C1-4C72-A650-7A6143CEA8F7}" uniqueName="2" name="cat_name" queryTableFieldId="2" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB92CF84-5AFC-4162-B8BA-90C26765BDAD}" name="Tabla2" displayName="Tabla2" ref="A1:C62" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:C62" xr:uid="{DB92CF84-5AFC-4162-B8BA-90C26765BDAD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{82CCD061-7CB9-40EE-94FF-361AAC9E3F7A}" name="Columna1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E9D6F9EE-57A9-46EA-9113-41AD9EFB9736}" name="Category" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BCF4B84A-8DAF-4887-9F92-7D9A9630FFCE}" name="Columna3" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E002DF33-9F40-4853-9209-1BB2006596F0}" name="Tabla3" displayName="Tabla3" ref="A1:B16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:B16" xr:uid="{E002DF33-9F40-4853-9209-1BB2006596F0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D14CA121-CB52-464E-A206-79D9A328946D}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AD2ABC72-6752-47D9-AF16-6591F5349823}" name="Columna2" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A889A4B-EDA6-4B08-8969-F3DA13342BD6}" name="Tabla4" displayName="Tabla4" ref="A1:D18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D18" xr:uid="{7A889A4B-EDA6-4B08-8969-F3DA13342BD6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E3710AB8-861C-431F-BB6C-4ED5261B9F40}" name="Group, Tag?!" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0CB2EAFD-CDE5-4377-9706-1389A5365152}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3B4A3F4D-A41F-403B-BB56-9B70F02F36D2}" name="Subcategory" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{09D78D55-DC74-4428-9156-4ADF20F449D1}" name="Columna2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,9 +1423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2758CA72-CE77-436A-8F01-2AEE13A434D9}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1031,135 +1434,135 @@
     <col min="2" max="2" width="40.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>48</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>69</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>38</v>
-      </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -1167,412 +1570,412 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>33</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>35</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>36</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>38</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>39</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>40</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>42</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>43</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>46</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>50</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>41</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>44</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="50" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>51</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>53</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>54</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>56</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>57</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>58</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>62</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="62" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>64</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="64" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>65</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>66</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>59</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    </row>
+    <row r="66" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>67</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>68</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>61</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>13</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+    </row>
+    <row r="68" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>69</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>57</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>24</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>23</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>28</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>14</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>49</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>21</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>9</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>22</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>68</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>33</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>58</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>31</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>34</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>51</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>55</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>8</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>54</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>12</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>40</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>26</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>25</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>19</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>67</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>15</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>56</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>36</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>35</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>30</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>29</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>16</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>47</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>43</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1586,640 +1989,874 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3EB7C6-C939-44D8-9788-1B3593DD82A4}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+    <row r="32" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A35" s="6" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A36" s="6" t="s">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A38" s="6" t="s">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A39" s="6" t="s">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A40" s="6" t="s">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A53" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="C54" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A55" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A56" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="C57" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A58" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A59" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97021906-FA44-4266-A4A2-E8C9B3036222}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBF5A02-F45A-4DDE-8E4E-AB40F88646BC}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
